--- a/OHC Data.xlsx
+++ b/OHC Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,15 +15,10 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -832,7 +827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A94" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
